--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:30:40+00:00</t>
+    <t>2025-07-11T07:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:36:43+00:00</t>
+    <t>2025-07-11T07:41:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T07:41:04+00:00</t>
+    <t>2025-07-11T08:58:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T08:58:20+00:00</t>
+    <t>2025-07-11T09:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:01:56+00:00</t>
+    <t>2025-07-11T11:49:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:49:25+00:00</t>
+    <t>2025-07-11T11:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T11:55:35+00:00</t>
+    <t>2025-07-11T12:03:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:03:33+00:00</t>
+    <t>2025-07-11T12:06:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:06:27+00:00</t>
+    <t>2025-07-11T12:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:24:54+00:00</t>
+    <t>2025-07-11T12:29:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t/>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:29:53+00:00</t>
+    <t>2025-07-11T12:36:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:36:09+00:00</t>
+    <t>2025-07-11T12:44:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:44:15+00:00</t>
+    <t>2025-07-11T12:52:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T12:52:14+00:00</t>
+    <t>2025-07-11T13:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T13:00:29+00:00</t>
+    <t>2025-07-15T07:25:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-15T07:25:49+00:00</t>
+    <t>2025-07-18T11:27:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:27:43+00:00</t>
+    <t>2025-07-18T11:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:28:48+00:00</t>
+    <t>2025-07-18T11:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FrMedicationReconciliationStatus</t>
+    <t>FRMedicationReconciliationStatus</t>
   </si>
   <si>
     <t>Title</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:31:51+00:00</t>
+    <t>2025-07-18T11:43:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T11:43:48+00:00</t>
+    <t>2025-07-18T13:01:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:01:32+00:00</t>
+    <t>2025-07-18T13:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:25:27+00:00</t>
+    <t>2025-07-18T13:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:29:35+00:00</t>
+    <t>2025-07-18T13:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:32:21+00:00</t>
+    <t>2025-07-18T13:36:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T13:36:35+00:00</t>
+    <t>2025-07-18T14:10:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:10:10+00:00</t>
+    <t>2025-07-18T14:20:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:20:27+00:00</t>
+    <t>2025-07-18T14:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:22:51+00:00</t>
+    <t>2025-07-18T14:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T14:33:50+00:00</t>
+    <t>2025-07-21T08:56:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T08:56:18+00:00</t>
+    <t>2025-07-21T09:00:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:00:57+00:00</t>
+    <t>2025-07-21T09:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T09:13:17+00:00</t>
+    <t>2025-07-21T13:05:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:05:14+00:00</t>
+    <t>2025-07-21T13:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
+++ b/nr-review/ig/CodeSystem-fr-medication-reconciliation-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T13:09:46+00:00</t>
+    <t>2025-07-22T16:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
